--- a/biology/Botanique/Lesquerella/Lesquerella.xlsx
+++ b/biology/Botanique/Lesquerella/Lesquerella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lesquerella est un genre végétal de la famille des Brassicaceae. Un grand nombre des espèces ayant fait partie de ce genre ont été déplacées en 2002 dans les genres Physaria ou Paysonia.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Lesquerella alpina (Nutt.) S. Watson renommée Physaria reediana O'Kane &amp; Al-Shehbaz
